--- a/StructureDefinition-total-length-of-stay.xlsx
+++ b/StructureDefinition-total-length-of-stay.xlsx
@@ -6233,7 +6233,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>335</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
